--- a/medicine/Sexualité et sexologie/Emmanuelle_5/Emmanuelle_5.xlsx
+++ b/medicine/Sexualité et sexologie/Emmanuelle_5/Emmanuelle_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuelle 5 est un film français réalisé par Walerian Borowczyk, sorti en 1987.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Emmanuelle 5
 Réalisation : Walerian Borowczyk
@@ -551,8 +567,8 @@
 Date de sortie :
  France : 7 janvier 1987
 Classification :
- France : interdit aux moins de 16 ans[1]
- Royaume-Uni : interdit aux moins de 18 ans[2]</t>
+ France : interdit aux moins de 16 ans
+ Royaume-Uni : interdit aux moins de 18 ans</t>
         </is>
       </c>
     </row>
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Monique Gabrielle : Emmanuelle
 Crofton Hardester : Eric
